--- a/parameter_template.xlsx
+++ b/parameter_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c7a610e17e1589e/work/HEPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C.M.P\Documents\NetBeansProjects\heps-db-param_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Team</t>
   </si>
@@ -71,9 +71,6 @@
     <t>定义</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>参数名称</t>
   </si>
   <si>
@@ -86,7 +83,34 @@
     <t>组长</t>
   </si>
   <si>
-    <t>填表人</t>
+    <t>Reference Title</t>
+  </si>
+  <si>
+    <t>Reference Author</t>
+  </si>
+  <si>
+    <t>Reference Publication</t>
+  </si>
+  <si>
+    <t>Reference URL</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>参考文献名</t>
+  </si>
+  <si>
+    <t>参考文献作者</t>
+  </si>
+  <si>
+    <t>参考文献</t>
+  </si>
+  <si>
+    <t>参考网址</t>
+  </si>
+  <si>
+    <t>关键字</t>
   </si>
 </sst>
 </file>
@@ -136,8 +160,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,21 +517,21 @@
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -497,21 +549,33 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -529,7 +593,19 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
